--- a/input_data_1204.xlsx
+++ b/input_data_1204.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Carbomica_reloaded/carbomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2325E1D5-BB1D-42E1-B621-683398E34295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2325E1D5-BB1D-42E1-B621-683398E34295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3241E70-8552-407D-BE3B-4F294C3BFC5F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -476,9 +476,6 @@
     <t>Business_Travel</t>
   </si>
   <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus)</t>
-  </si>
-  <si>
     <t>Refrigeration_Gases</t>
   </si>
   <si>
@@ -488,55 +485,58 @@
     <t>Recycling_WasteSegregation</t>
   </si>
   <si>
-    <t>Recycling, Waste segregation</t>
-  </si>
-  <si>
     <t>SolarSystem_Installation</t>
-  </si>
-  <si>
-    <t>Solar system</t>
   </si>
   <si>
     <t>Efficient_Chillers_Upgrade</t>
   </si>
   <si>
-    <t>Upgrade to more efficient chillers/VRFs/Split units</t>
-  </si>
-  <si>
     <t>Lighting_Efficiency</t>
-  </si>
-  <si>
-    <t>Use energy efficient LED bulbs; Implement lighting controls (occupancy sensors, timers, dimmers/centralized switch)</t>
   </si>
   <si>
     <t>LowGWP_Refrigerants</t>
   </si>
   <si>
-    <t>Use low GWP refrigerants (R410 - CO2)</t>
-  </si>
-  <si>
     <t>Hybrid_Car_Use</t>
-  </si>
-  <si>
-    <t>Use Hybrid cars</t>
   </si>
   <si>
     <t>LowGWP_Inhalers</t>
   </si>
   <si>
-    <t>Encourage use of low GWP inhalers (Ventolin Evohaler Sulbatomol to Dry powder)</t>
-  </si>
-  <si>
     <t>LowGWP_AnaestheticGases</t>
-  </si>
-  <si>
-    <t>Use low GWP anaesthetic gases (Nitrogen oxide to Isoflurane)</t>
   </si>
   <si>
     <t>Staff_Training_Awareness</t>
   </si>
   <si>
-    <t>Staff training and awareness; Conservation and reduction Operation activities for all emissions</t>
+    <t>Recycling &amp; Segregation</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>Efficient Chillers</t>
+  </si>
+  <si>
+    <t>LED &amp; Lighting Control</t>
+  </si>
+  <si>
+    <t>Low-GWP Refrigerants</t>
+  </si>
+  <si>
+    <t>Hybrid Vehicles</t>
+  </si>
+  <si>
+    <t>Low-GWP Inhalers</t>
+  </si>
+  <si>
+    <t>Eco-friendly Anesthetics</t>
+  </si>
+  <si>
+    <t>Emissions Training &amp; Conservation</t>
+  </si>
+  <si>
+    <t>Business travel</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1720,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1733,7 +1733,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5874,7 +5874,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5894,63 +5894,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -15898,7 +15898,7 @@
   </sheetPr>
   <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/input_data_1204.xlsx
+++ b/input_data_1204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Carbomica_reloaded/carbomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2325E1D5-BB1D-42E1-B621-683398E34295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3241E70-8552-407D-BE3B-4F294C3BFC5F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{2325E1D5-BB1D-42E1-B621-683398E34295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80B7489-BE26-45B7-AB61-0C4D4B3A0D4A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="28680" yWindow="-1455" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5977,7 +5977,7 @@
   <dimension ref="A1:KB304"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9310,8 +9310,8 @@
   </sheetPr>
   <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10575,7 +10575,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="J2" s="13">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:304" x14ac:dyDescent="0.35">
@@ -12433,18 +12433,18 @@
   </sheetPr>
   <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" customWidth="1"/>
     <col min="3" max="3" width="33.26953125" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
     <col min="7" max="7" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
@@ -13677,13 +13677,13 @@
         <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" s="1">
-        <v>421135.25752090407</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="1">
-        <v>50000</v>
+        <v>280000</v>
       </c>
       <c r="D2" s="1">
-        <v>10000</v>
+        <v>312000</v>
       </c>
       <c r="E2" s="1">
         <v>30000</v>
@@ -15899,7 +15899,7 @@
   <dimension ref="A1:KR309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17143,15 +17143,15 @@
       </c>
       <c r="B2" s="1">
         <f>'implementation costs'!B2/10</f>
-        <v>42113.525752090405</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1">
         <f>'implementation costs'!C2/10</f>
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="D2" s="1">
         <f>'implementation costs'!D2/10</f>
-        <v>1000</v>
+        <v>31200</v>
       </c>
       <c r="E2" s="1">
         <f>'implementation costs'!E2/10</f>
